--- a/geopolymerAnalysis/actula.xlsx
+++ b/geopolymerAnalysis/actula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,176 +436,152 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tb(N/m2)</t>
+          <t>Load (KN)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.144</v>
+        <v>2333.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B3" t="n">
-        <v>0.662772634</v>
+        <v>3267.765849889729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B4" t="n">
-        <v>5.263048613</v>
+        <v>3196.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7030387380000001</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>4.436057741</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B7" t="n">
-        <v>0.30297447</v>
+        <v>2334.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>0.61781895</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B9" t="n">
-        <v>0.731091641</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317490294</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
-        <v>0.63842175</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>0.758534571</v>
+        <v>1193.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>0.528989334</v>
+        <v>1639.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B14" t="n">
-        <v>0.237383681</v>
+        <v>3359.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>2.852840784</v>
+        <v>1816.34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>3.503198198</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B17" t="n">
-        <v>0.104</v>
+        <v>3891.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13</v>
+        <v>1705.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B19" t="n">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.698017107</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5993156589999999</v>
+        <v>2017.001651742916</v>
       </c>
     </row>
   </sheetData>
